--- a/ValueSet-CBSLabObservationResultVS.xlsx
+++ b/ValueSet-CBSLabObservationResultVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-18T11:18:26-04:00</t>
+    <t>2021-11-01T11:33:34-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-CBSLabObservationResultVS.xlsx
+++ b/ValueSet-CBSLabObservationResultVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-01T11:33:34-04:00</t>
+    <t>2021-11-03T10:06:32-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-CBSLabObservationResultVS.xlsx
+++ b/ValueSet-CBSLabObservationResultVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-03T10:06:32-04:00</t>
+    <t>2022-01-18T12:41:26-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-CBSLabObservationResultVS.xlsx
+++ b/ValueSet-CBSLabObservationResultVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-18T12:41:26-05:00</t>
+    <t>2022-01-25T10:18:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
